--- a/_site/homepage/nation.xlsx
+++ b/_site/homepage/nation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="460" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Class</t>
   </si>
@@ -272,16 +272,26 @@
   </si>
   <si>
     <t>NATIONAL Rate of New Entrepreneurs: Rate</t>
+  </si>
+  <si>
+    <t>TotalIndex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,13 +317,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="87" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1639,7 @@
         <v>137622</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1760,7 +1775,7 @@
         <v>137959</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1964,7 +1979,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
@@ -2304,7 +2319,7 @@
         <v>291530</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -2712,7 +2727,7 @@
         <v>79471</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
@@ -3664,7 +3679,7 @@
         <v>30472</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -4413,28 +4428,72 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="A57" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57">
+        <v>0.85</v>
+      </c>
+      <c r="C57">
+        <v>0.09</v>
+      </c>
+      <c r="D57">
+        <v>0.3</v>
+      </c>
+      <c r="E57">
+        <v>0.16</v>
+      </c>
+      <c r="F57">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G57">
+        <v>-0.11</v>
+      </c>
+      <c r="H57">
+        <v>-0.4</v>
+      </c>
+      <c r="I57">
+        <v>-0.08</v>
+      </c>
+      <c r="J57">
+        <v>0.2</v>
+      </c>
+      <c r="K57">
+        <v>-0.06</v>
+      </c>
+      <c r="L57">
+        <v>0.46</v>
+      </c>
+      <c r="M57">
+        <v>0.19</v>
+      </c>
+      <c r="N57">
+        <v>0.36</v>
+      </c>
+      <c r="O57">
+        <v>-0.35</v>
+      </c>
+      <c r="P57">
+        <v>-0.41</v>
+      </c>
+      <c r="Q57">
+        <v>-0.62</v>
+      </c>
+      <c r="R57">
+        <v>-0.5</v>
+      </c>
+      <c r="S57">
+        <v>-0.87</v>
+      </c>
+      <c r="T57">
+        <v>-0.3</v>
+      </c>
+      <c r="U57">
+        <v>0.47</v>
+      </c>
+      <c r="V57">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
@@ -4508,6 +4567,15 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
